--- a/testData/TestData.xlsx
+++ b/testData/TestData.xlsx
@@ -3,21 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Workspace\automationpractice\testData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10470" windowHeight="3765"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="4425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="RegData" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Username</t>
   </si>
@@ -56,6 +60,81 @@
   </si>
   <si>
     <t>Password4</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Address 1</t>
+  </si>
+  <si>
+    <t>Address 2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Postal code</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Additional Inforaation</t>
+  </si>
+  <si>
+    <t>Mobile no</t>
+  </si>
+  <si>
+    <t>Address alias</t>
+  </si>
+  <si>
+    <t>Last Name1</t>
+  </si>
+  <si>
+    <t>First Name1</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Address1_1</t>
+  </si>
+  <si>
+    <t>Address2_1</t>
+  </si>
+  <si>
+    <t>City1</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Additional Inforaation1</t>
+  </si>
+  <si>
+    <t>Address alias 1</t>
   </si>
 </sst>
 </file>
@@ -71,12 +150,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,8 +176,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,7 +485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -472,13 +558,129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="8" max="9" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1980</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2">
+        <v>12123</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2">
+        <v>1234567890</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/testData/TestData.xlsx
+++ b/testData/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Username</t>
   </si>
@@ -107,21 +107,9 @@
     <t>Address alias</t>
   </si>
   <si>
-    <t>Last Name1</t>
-  </si>
-  <si>
-    <t>First Name1</t>
-  </si>
-  <si>
     <t>ABC</t>
   </si>
   <si>
-    <t>Address1_1</t>
-  </si>
-  <si>
-    <t>Address2_1</t>
-  </si>
-  <si>
     <t>City1</t>
   </si>
   <si>
@@ -135,6 +123,18 @@
   </si>
   <si>
     <t>Address alias 1</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Test10041@test.com</t>
+  </si>
+  <si>
+    <t>Address2 1</t>
+  </si>
+  <si>
+    <t>Address1 1</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,124 +558,131 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="8" max="9" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="9" max="10" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>1980</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>1980</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="L2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
+      <c r="M2">
+        <v>12123</v>
+      </c>
+      <c r="N2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="O2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" t="s">
+      <c r="P2">
+        <v>1234567890</v>
+      </c>
+      <c r="Q2" t="s">
         <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2">
-        <v>12123</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2">
-        <v>1234567890</v>
-      </c>
-      <c r="P2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
